--- a/trabalho/Arquitetura Atual.xlsx
+++ b/trabalho/Arquitetura Atual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836E5C0B-C867-451A-B57E-36F009539526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{257AFE54-E160-46D1-B623-744EB2E8D240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30510" yWindow="2655" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="What - Perspectiva Executiva" sheetId="3" r:id="rId1"/>
@@ -22,16 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
-  <si>
-    <t>Poço</t>
-  </si>
-  <si>
-    <t>Reservatório</t>
-  </si>
-  <si>
-    <t>Derivado</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="61">
   <si>
     <t>Termos</t>
   </si>
@@ -48,84 +39,18 @@
     <t>Processos desdobrados</t>
   </si>
   <si>
-    <t>Produzir petróleo</t>
-  </si>
-  <si>
-    <t>Prospectar reservatórios</t>
-  </si>
-  <si>
-    <t>Explorar poços</t>
-  </si>
-  <si>
-    <t>Processo 3</t>
-  </si>
-  <si>
-    <t>Realizar mistura</t>
-  </si>
-  <si>
-    <t>Produzir querosene</t>
-  </si>
-  <si>
-    <t>Processo 4</t>
-  </si>
-  <si>
-    <t>Glossário de termos de negócio (lista das "coisas" de negócio)</t>
-  </si>
-  <si>
-    <t>Gerir recursos humanos</t>
-  </si>
-  <si>
-    <t>Contratar empregado</t>
-  </si>
-  <si>
-    <t>Termo 3</t>
-  </si>
-  <si>
-    <t>Refinar petróleo</t>
-  </si>
-  <si>
-    <t>Empregado</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>Avaliar desempenho do empregado</t>
-  </si>
-  <si>
     <t>Aplicações</t>
   </si>
   <si>
-    <t>Sistema de reservatórios</t>
-  </si>
-  <si>
-    <t>Sistema de poços</t>
-  </si>
-  <si>
-    <t>Sistema de misturas</t>
-  </si>
-  <si>
-    <t>Sistema de derivados</t>
-  </si>
-  <si>
-    <t>ERP</t>
-  </si>
-  <si>
-    <t>Sistema de avaliação de desempenho</t>
-  </si>
-  <si>
     <t>Legenda</t>
   </si>
   <si>
-    <t>Sistema que gerencia ...</t>
-  </si>
-  <si>
-    <t>Bla Bla bla...</t>
-  </si>
-  <si>
     <t>P = produz</t>
   </si>
   <si>
@@ -135,12 +60,6 @@
     <t>Objetivos/Valor agregado</t>
   </si>
   <si>
-    <t>Emitir bilhete aéreo</t>
-  </si>
-  <si>
-    <t>Bilhete</t>
-  </si>
-  <si>
     <t>Anúncio</t>
   </si>
   <si>
@@ -247,6 +166,45 @@
   </si>
   <si>
     <t>Provisionar Soluções de TI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRM (Customer Relationship Management) </t>
+  </si>
+  <si>
+    <t>ERP (Enterprise Resource Planning)</t>
+  </si>
+  <si>
+    <t>Sistema de Gerenciamento de Projetos</t>
+  </si>
+  <si>
+    <t>Sistema de Venda de Cupons (e-commerce)</t>
+  </si>
+  <si>
+    <t>Sistema de Registro e Acompanhamento de Negociação de Contratos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Ads </t>
+  </si>
+  <si>
+    <t>Sistema de gestão dos clientes</t>
+  </si>
+  <si>
+    <t>Sistema que centraliza todos os recursos de planejamento da empresa</t>
+  </si>
+  <si>
+    <t>Sistema que apoia na gestão dos projetos que estão em curso na Venda Geral</t>
+  </si>
+  <si>
+    <t>Site para aquisição de cupons</t>
+  </si>
+  <si>
+    <t>Sistema responsavel por gerir Negociações de contratos</t>
+  </si>
+  <si>
+    <t>Serviço utilizado para divulgação dos cupons fornecedos pela Venda Geral</t>
+  </si>
+  <si>
+    <t>Glossário de termos de negócio</t>
   </si>
 </sst>
 </file>
@@ -303,7 +261,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,12 +277,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,19 +300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF7C80"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,6 +325,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,47 +431,61 @@
       <alignment textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -547,18 +507,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,6 +745,10 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1085,7 +1041,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1095,97 +1051,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="36"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>52</v>
+      <c r="B6" s="18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>53</v>
+      <c r="A7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>54</v>
+      <c r="A8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>55</v>
+      <c r="A9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>56</v>
+      <c r="A10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>57</v>
+      <c r="A11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>58</v>
+      <c r="A12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1203,143 +1159,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="A1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="32"/>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="8"/>
+      <c r="B7" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="8"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="8"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="8"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="8"/>
+      <c r="A11" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="8"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="8"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="8"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1360,389 +1316,530 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.28515625" customWidth="1"/>
-    <col min="2" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.28515625" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
-    <col min="10" max="13" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" customWidth="1"/>
+    <col min="2" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="12" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="24" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
+      <c r="B1" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="24"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="24"/>
+    </row>
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="23"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="F4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="24"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
+      <c r="D8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="23"/>
+      <c r="E9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="16" t="s">
-        <v>21</v>
+      <c r="C11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="31" t="s">
+        <v>5</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="G11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="17" t="s">
-        <v>21</v>
-      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="P15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="20"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="21"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="22"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="23"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="24"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="26"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="B15:N15"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="B18:N18"/>
-    <mergeCell ref="B19:N19"/>
-    <mergeCell ref="B20:N20"/>
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B20:M20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>

--- a/trabalho/Arquitetura Atual.xlsx
+++ b/trabalho/Arquitetura Atual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{257AFE54-E160-46D1-B623-744EB2E8D240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A827CCC8-987E-4E26-AA02-39E1D7DFCAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30510" yWindow="2655" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29820" yWindow="1965" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="What - Perspectiva Executiva" sheetId="3" r:id="rId1"/>
@@ -745,10 +745,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1319,7 +1315,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A20" sqref="A20"/>

--- a/trabalho/Arquitetura Atual.xlsx
+++ b/trabalho/Arquitetura Atual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A827CCC8-987E-4E26-AA02-39E1D7DFCAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFD7B41-0130-4005-B1B5-C5776DD003D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29820" yWindow="1965" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="What - Perspectiva Executiva" sheetId="3" r:id="rId1"/>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1318,7 +1318,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
